--- a/Results/Plot data/ipcc_ar6_figure_spm_1_archive.xlsx
+++ b/Results/Plot data/ipcc_ar6_figure_spm_1_archive.xlsx
@@ -3422,7 +3422,7 @@
         <v>2</v>
       </c>
       <c r="C272" t="n">
-        <v>4.979180807728</v>
+        <v>4.97925897428267</v>
       </c>
     </row>
     <row r="273">
@@ -3433,7 +3433,7 @@
         <v>2</v>
       </c>
       <c r="C273" t="n">
-        <v>4.93705854162133</v>
+        <v>4.93700602306667</v>
       </c>
     </row>
     <row r="274">
@@ -3444,7 +3444,7 @@
         <v>2</v>
       </c>
       <c r="C274" t="n">
-        <v>4.94476376996267</v>
+        <v>4.944710031296</v>
       </c>
     </row>
     <row r="275">
@@ -3455,7 +3455,7 @@
         <v>2</v>
       </c>
       <c r="C275" t="n">
-        <v>4.95038710129067</v>
+        <v>4.95046404529067</v>
       </c>
     </row>
     <row r="276">
@@ -3466,7 +3466,7 @@
         <v>2</v>
       </c>
       <c r="C276" t="n">
-        <v>4.92721480013867</v>
+        <v>4.927248997472</v>
       </c>
     </row>
     <row r="277">
@@ -3477,7 +3477,7 @@
         <v>2</v>
       </c>
       <c r="C277" t="n">
-        <v>4.89187336204267</v>
+        <v>4.89202480493333</v>
       </c>
     </row>
     <row r="278">
@@ -3488,7 +3488,7 @@
         <v>2</v>
       </c>
       <c r="C278" t="n">
-        <v>4.829820287952</v>
+        <v>4.829878911952</v>
       </c>
     </row>
     <row r="279">
@@ -3499,7 +3499,7 @@
         <v>2</v>
       </c>
       <c r="C279" t="n">
-        <v>6.55340794822933</v>
+        <v>6.55347145756267</v>
       </c>
     </row>
     <row r="280">
@@ -3510,7 +3510,7 @@
         <v>2</v>
       </c>
       <c r="C280" t="n">
-        <v>4.56696826829867</v>
+        <v>4.56704154952</v>
       </c>
     </row>
     <row r="281">
@@ -3521,7 +3521,7 @@
         <v>2</v>
       </c>
       <c r="C281" t="n">
-        <v>4.508682009712</v>
+        <v>4.50866735249067</v>
       </c>
     </row>
     <row r="282">
@@ -3532,7 +3532,7 @@
         <v>2</v>
       </c>
       <c r="C282" t="n">
-        <v>5.05170398532267</v>
+        <v>5.05175650021333</v>
       </c>
     </row>
     <row r="283">
@@ -3543,7 +3543,7 @@
         <v>2</v>
       </c>
       <c r="C283" t="n">
-        <v>4.88591768026667</v>
+        <v>4.88590913093333</v>
       </c>
     </row>
     <row r="284">
@@ -3554,7 +3554,7 @@
         <v>2</v>
       </c>
       <c r="C284" t="n">
-        <v>5.50042406870933</v>
+        <v>5.500498571264</v>
       </c>
     </row>
     <row r="285">
@@ -3565,7 +3565,7 @@
         <v>2</v>
       </c>
       <c r="C285" t="n">
-        <v>5.665169111376</v>
+        <v>5.66508606070933</v>
       </c>
     </row>
     <row r="286">
@@ -3576,7 +3576,7 @@
         <v>2</v>
       </c>
       <c r="C286" t="n">
-        <v>5.54685124291733</v>
+        <v>5.54683292291733</v>
       </c>
     </row>
     <row r="287">
@@ -3587,7 +3587,7 @@
         <v>2</v>
       </c>
       <c r="C287" t="n">
-        <v>5.194334723936</v>
+        <v>5.19433594526933</v>
       </c>
     </row>
     <row r="288">
@@ -3598,7 +3598,7 @@
         <v>2</v>
       </c>
       <c r="C288" t="n">
-        <v>5.48132627112533</v>
+        <v>5.48138123234667</v>
       </c>
     </row>
     <row r="289">
@@ -3609,7 +3609,7 @@
         <v>2</v>
       </c>
       <c r="C289" t="n">
-        <v>4.80616361454933</v>
+        <v>4.80620880632533</v>
       </c>
     </row>
     <row r="290">
@@ -3620,7 +3620,7 @@
         <v>2</v>
       </c>
       <c r="C290" t="n">
-        <v>4.97515829509867</v>
+        <v>4.97524378721067</v>
       </c>
     </row>
     <row r="291">
@@ -3631,7 +3631,7 @@
         <v>2</v>
       </c>
       <c r="C291" t="n">
-        <v>5.86615657340267</v>
+        <v>5.86605520395733</v>
       </c>
     </row>
     <row r="292">
@@ -3642,7 +3642,7 @@
         <v>2</v>
       </c>
       <c r="C292" t="n">
-        <v>5.33731686335467</v>
+        <v>5.33733151935467</v>
       </c>
     </row>
     <row r="293">
@@ -3653,7 +3653,7 @@
         <v>2</v>
       </c>
       <c r="C293" t="n">
-        <v>5.06208077041067</v>
+        <v>5.06208199052267</v>
       </c>
     </row>
     <row r="294">
@@ -3664,7 +3664,7 @@
         <v>2</v>
       </c>
       <c r="C294" t="n">
-        <v>5.444890438976</v>
+        <v>5.44496493786667</v>
       </c>
     </row>
     <row r="295">
@@ -3675,7 +3675,7 @@
         <v>2</v>
       </c>
       <c r="C295" t="n">
-        <v>5.62006774946133</v>
+        <v>5.62009828523733</v>
       </c>
     </row>
     <row r="296">
@@ -3686,7 +3686,7 @@
         <v>2</v>
       </c>
       <c r="C296" t="n">
-        <v>6.04309861895467</v>
+        <v>6.04316334962133</v>
       </c>
     </row>
     <row r="297">
@@ -3697,7 +3697,7 @@
         <v>2</v>
       </c>
       <c r="C297" t="n">
-        <v>6.2484473756</v>
+        <v>6.248510887376</v>
       </c>
     </row>
     <row r="298">
@@ -3708,7 +3708,7 @@
         <v>2</v>
       </c>
       <c r="C298" t="n">
-        <v>5.69877314173867</v>
+        <v>5.69879146173867</v>
       </c>
     </row>
     <row r="299">
@@ -3719,7 +3719,7 @@
         <v>2</v>
       </c>
       <c r="C299" t="n">
-        <v>5.573991504624</v>
+        <v>5.57399272595733</v>
       </c>
     </row>
     <row r="300">
@@ -3730,7 +3730,7 @@
         <v>2</v>
       </c>
       <c r="C300" t="n">
-        <v>5.69026309869867</v>
+        <v>5.690195927808</v>
       </c>
     </row>
     <row r="301">
@@ -3741,7 +3741,7 @@
         <v>2</v>
       </c>
       <c r="C301" t="n">
-        <v>6.6050388476</v>
+        <v>6.60497167670933</v>
       </c>
     </row>
   </sheetData>
@@ -4110,7 +4110,7 @@
         <v>40.9442786582974</v>
       </c>
       <c r="H2" t="n">
-        <v>59.0906248276123</v>
+        <v>59.0905576567216</v>
       </c>
     </row>
     <row r="3">
@@ -4118,25 +4118,25 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>6.6050388476</v>
+        <v>6.60497167670933</v>
       </c>
       <c r="C3" t="n">
         <v>37.9113691280531</v>
       </c>
       <c r="D3" t="n">
-        <v>44.5164079756531</v>
+        <v>44.5163408047624</v>
       </c>
       <c r="E3" t="n">
-        <v>4.62352719332</v>
+        <v>4.62348017369653</v>
       </c>
       <c r="F3" t="n">
-        <v>39.8928807823331</v>
+        <v>39.8928606310659</v>
       </c>
       <c r="G3" t="n">
-        <v>49.1399351689731</v>
+        <v>49.139820978459</v>
       </c>
       <c r="H3" t="n">
-        <v>59.0906248276123</v>
+        <v>59.0905576567216</v>
       </c>
     </row>
     <row r="4">
@@ -4147,22 +4147,22 @@
         <v>10.5651795494206</v>
       </c>
       <c r="C4" t="n">
-        <v>44.5164079756531</v>
+        <v>44.5163408047624</v>
       </c>
       <c r="D4" t="n">
-        <v>55.0815875250737</v>
+        <v>55.0815203541831</v>
       </c>
       <c r="E4" t="n">
         <v>3.16955386482619</v>
       </c>
       <c r="F4" t="n">
-        <v>51.9120336602476</v>
+        <v>51.9119664893569</v>
       </c>
       <c r="G4" t="n">
-        <v>58.2511413898999</v>
+        <v>58.2510742190093</v>
       </c>
       <c r="H4" t="n">
-        <v>59.0906248276123</v>
+        <v>59.0905576567216</v>
       </c>
     </row>
     <row r="5">
@@ -4173,22 +4173,22 @@
         <v>2.65875327649005</v>
       </c>
       <c r="C5" t="n">
-        <v>55.0815875250737</v>
+        <v>55.0815203541831</v>
       </c>
       <c r="D5" t="n">
-        <v>57.7403408015638</v>
+        <v>57.7402736306731</v>
       </c>
       <c r="E5" t="n">
         <v>1.59525196589403</v>
       </c>
       <c r="F5" t="n">
-        <v>56.1450888356698</v>
+        <v>56.1450216647791</v>
       </c>
       <c r="G5" t="n">
-        <v>59.3355927674578</v>
+        <v>59.3355255965672</v>
       </c>
       <c r="H5" t="n">
-        <v>59.0906248276123</v>
+        <v>59.0905576567216</v>
       </c>
     </row>
     <row r="6">
@@ -4199,22 +4199,22 @@
         <v>1.35028402604853</v>
       </c>
       <c r="C6" t="n">
-        <v>57.7403408015638</v>
+        <v>57.7402736306731</v>
       </c>
       <c r="D6" t="n">
-        <v>59.0906248276123</v>
+        <v>59.0905576567216</v>
       </c>
       <c r="E6" t="n">
         <v>0.405085207814559</v>
       </c>
       <c r="F6" t="n">
-        <v>58.6855396197978</v>
+        <v>58.6854724489071</v>
       </c>
       <c r="G6" t="n">
-        <v>59.4957100354269</v>
+        <v>59.4956428645362</v>
       </c>
       <c r="H6" t="n">
-        <v>59.0906248276123</v>
+        <v>59.0905576567216</v>
       </c>
     </row>
   </sheetData>
@@ -4256,13 +4256,13 @@
         <v>37.9113691280531</v>
       </c>
       <c r="C2" t="n">
-        <v>6.58259359890381</v>
+        <v>6.58256057302361</v>
       </c>
       <c r="D2" t="n">
-        <v>52.5080312287085</v>
+        <v>52.507997083698</v>
       </c>
       <c r="E2" t="n">
-        <v>65.6732184265161</v>
+        <v>65.6731182297453</v>
       </c>
     </row>
     <row r="3">
@@ -4273,13 +4273,13 @@
         <v>10.5651795494206</v>
       </c>
       <c r="C3" t="n">
-        <v>6.58259359890381</v>
+        <v>6.58256057302361</v>
       </c>
       <c r="D3" t="n">
-        <v>52.5080312287085</v>
+        <v>52.507997083698</v>
       </c>
       <c r="E3" t="n">
-        <v>65.6732184265161</v>
+        <v>65.6731182297453</v>
       </c>
     </row>
     <row r="4">
@@ -4290,13 +4290,13 @@
         <v>2.65875327649005</v>
       </c>
       <c r="C4" t="n">
-        <v>6.58259359890381</v>
+        <v>6.58256057302361</v>
       </c>
       <c r="D4" t="n">
-        <v>52.5080312287085</v>
+        <v>52.507997083698</v>
       </c>
       <c r="E4" t="n">
-        <v>65.6732184265161</v>
+        <v>65.6731182297453</v>
       </c>
     </row>
     <row r="5">
@@ -4307,13 +4307,13 @@
         <v>1.35028402604853</v>
       </c>
       <c r="C5" t="n">
-        <v>6.58259359890381</v>
+        <v>6.58256057302361</v>
       </c>
       <c r="D5" t="n">
-        <v>52.5080312287085</v>
+        <v>52.507997083698</v>
       </c>
       <c r="E5" t="n">
-        <v>65.6732184265161</v>
+        <v>65.6731182297453</v>
       </c>
     </row>
     <row r="6">
@@ -4321,16 +4321,16 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>6.6050388476</v>
+        <v>6.60497167670933</v>
       </c>
       <c r="C6" t="n">
-        <v>6.58259359890381</v>
+        <v>6.58256057302361</v>
       </c>
       <c r="D6" t="n">
-        <v>52.5080312287085</v>
+        <v>52.507997083698</v>
       </c>
       <c r="E6" t="n">
-        <v>65.6732184265161</v>
+        <v>65.6731182297453</v>
       </c>
     </row>
   </sheetData>
@@ -5919,13 +5919,13 @@
         <v>7</v>
       </c>
       <c r="C93" t="n">
-        <v>99.1540322046291</v>
+        <v>99.151420895474</v>
       </c>
       <c r="D93" t="n">
-        <v>168.561854747869</v>
+        <v>168.557415522306</v>
       </c>
       <c r="E93" t="n">
-        <v>29.7462096613887</v>
+        <v>29.7454262686422</v>
       </c>
     </row>
     <row r="94">
@@ -5936,13 +5936,13 @@
         <v>7</v>
       </c>
       <c r="C94" t="n">
-        <v>99.3087811209443</v>
+        <v>99.3061428785868</v>
       </c>
       <c r="D94" t="n">
-        <v>168.824927905605</v>
+        <v>168.820442893598</v>
       </c>
       <c r="E94" t="n">
-        <v>29.7926343362833</v>
+        <v>29.791842863576</v>
       </c>
     </row>
     <row r="95">
@@ -5953,13 +5953,13 @@
         <v>7</v>
       </c>
       <c r="C95" t="n">
-        <v>99.4217179984177</v>
+        <v>99.4217025235939</v>
       </c>
       <c r="D95" t="n">
-        <v>169.01692059731</v>
+        <v>169.01689429011</v>
       </c>
       <c r="E95" t="n">
-        <v>29.8265153995253</v>
+        <v>29.8265107570782</v>
       </c>
     </row>
     <row r="96">
@@ -5970,13 +5970,13 @@
         <v>7</v>
       </c>
       <c r="C96" t="n">
-        <v>98.9563341923901</v>
+        <v>98.9554675288172</v>
       </c>
       <c r="D96" t="n">
-        <v>168.225768127063</v>
+        <v>168.224294798989</v>
       </c>
       <c r="E96" t="n">
-        <v>29.686900257717</v>
+        <v>29.6866402586452</v>
       </c>
     </row>
     <row r="97">
@@ -5987,13 +5987,13 @@
         <v>7</v>
       </c>
       <c r="C97" t="n">
-        <v>98.2465500037712</v>
+        <v>98.2480491615341</v>
       </c>
       <c r="D97" t="n">
-        <v>167.019135006411</v>
+        <v>167.021683574608</v>
       </c>
       <c r="E97" t="n">
-        <v>29.4739650011314</v>
+        <v>29.4744147484602</v>
       </c>
     </row>
     <row r="98">
@@ -6004,13 +6004,13 @@
         <v>7</v>
       </c>
       <c r="C98" t="n">
-        <v>97.0002993355015</v>
+        <v>96.9999539469187</v>
       </c>
       <c r="D98" t="n">
-        <v>164.900508870353</v>
+        <v>164.899921709762</v>
       </c>
       <c r="E98" t="n">
-        <v>29.1000898006505</v>
+        <v>29.0999861840756</v>
       </c>
     </row>
     <row r="99">
@@ -6021,13 +6021,13 @@
         <v>7</v>
       </c>
       <c r="C99" t="n">
-        <v>131.616187507351</v>
+        <v>131.61539681729</v>
       </c>
       <c r="D99" t="n">
-        <v>223.747518762497</v>
+        <v>223.746174589393</v>
       </c>
       <c r="E99" t="n">
-        <v>39.4848562522054</v>
+        <v>39.4846190451871</v>
       </c>
     </row>
     <row r="100">
@@ -6038,13 +6038,13 @@
         <v>7</v>
       </c>
       <c r="C100" t="n">
-        <v>91.721277950189</v>
+        <v>91.7213097994757</v>
       </c>
       <c r="D100" t="n">
-        <v>155.926172515321</v>
+        <v>155.926226659109</v>
       </c>
       <c r="E100" t="n">
-        <v>27.5163833850567</v>
+        <v>27.5163929398427</v>
       </c>
     </row>
     <row r="101">
@@ -6055,13 +6055,13 @@
         <v>7</v>
       </c>
       <c r="C101" t="n">
-        <v>90.5506785918327</v>
+        <v>90.5489627227153</v>
       </c>
       <c r="D101" t="n">
-        <v>153.936153606116</v>
+        <v>153.933236628616</v>
       </c>
       <c r="E101" t="n">
-        <v>27.1652035775498</v>
+        <v>27.1646888168146</v>
       </c>
     </row>
     <row r="102">
@@ -6072,13 +6072,13 @@
         <v>7</v>
       </c>
       <c r="C102" t="n">
-        <v>101.456528300441</v>
+        <v>101.455990264919</v>
       </c>
       <c r="D102" t="n">
-        <v>172.476098110749</v>
+        <v>172.475183450363</v>
       </c>
       <c r="E102" t="n">
-        <v>30.4369584901322</v>
+        <v>30.4367970794758</v>
       </c>
     </row>
     <row r="103">
@@ -6089,13 +6089,13 @@
         <v>7</v>
       </c>
       <c r="C103" t="n">
-        <v>98.1269383245416</v>
+        <v>98.1252261866379</v>
       </c>
       <c r="D103" t="n">
-        <v>166.815795151721</v>
+        <v>166.812884517284</v>
       </c>
       <c r="E103" t="n">
-        <v>29.4380814973625</v>
+        <v>29.4375678559914</v>
       </c>
     </row>
     <row r="104">
@@ -6106,13 +6106,13 @@
         <v>7</v>
       </c>
       <c r="C104" t="n">
-        <v>110.468454171665</v>
+        <v>110.46821624811</v>
       </c>
       <c r="D104" t="n">
-        <v>187.79637209183</v>
+        <v>187.795967621787</v>
       </c>
       <c r="E104" t="n">
-        <v>33.1405362514994</v>
+        <v>33.140464874433</v>
       </c>
     </row>
     <row r="105">
@@ -6123,13 +6123,13 @@
         <v>7</v>
       </c>
       <c r="C105" t="n">
-        <v>113.777131824241</v>
+        <v>113.773677769501</v>
       </c>
       <c r="D105" t="n">
-        <v>193.42112410121</v>
+        <v>193.415252208152</v>
       </c>
       <c r="E105" t="n">
-        <v>34.1331395472723</v>
+        <v>34.1321033308504</v>
       </c>
     </row>
     <row r="106">
@@ -6140,13 +6140,13 @@
         <v>7</v>
       </c>
       <c r="C106" t="n">
-        <v>111.400880126873</v>
+        <v>111.398763381582</v>
       </c>
       <c r="D106" t="n">
-        <v>189.381496215684</v>
+        <v>189.377897748689</v>
       </c>
       <c r="E106" t="n">
-        <v>33.4202640380619</v>
+        <v>33.4196290144746</v>
       </c>
     </row>
     <row r="107">
@@ -6157,13 +6157,13 @@
         <v>7</v>
       </c>
       <c r="C107" t="n">
-        <v>104.321070563938</v>
+        <v>104.3194574152</v>
       </c>
       <c r="D107" t="n">
-        <v>177.345819958695</v>
+        <v>177.34307760584</v>
       </c>
       <c r="E107" t="n">
-        <v>31.2963211691815</v>
+        <v>31.29583722456</v>
       </c>
     </row>
     <row r="108">
@@ -6174,13 +6174,13 @@
         <v>7</v>
       </c>
       <c r="C108" t="n">
-        <v>110.084901167236</v>
+        <v>110.084276810212</v>
       </c>
       <c r="D108" t="n">
-        <v>187.144331984301</v>
+        <v>187.143270577361</v>
       </c>
       <c r="E108" t="n">
-        <v>33.0254703501707</v>
+        <v>33.0252830430637</v>
       </c>
     </row>
     <row r="109">
@@ -6191,13 +6191,13 @@
         <v>7</v>
       </c>
       <c r="C109" t="n">
-        <v>96.5251875788456</v>
+        <v>96.5245798852577</v>
       </c>
       <c r="D109" t="n">
-        <v>164.092818884038</v>
+        <v>164.091785804938</v>
       </c>
       <c r="E109" t="n">
-        <v>28.9575562736537</v>
+        <v>28.9573739655773</v>
       </c>
     </row>
     <row r="110">
@@ -6208,13 +6208,13 @@
         <v>7</v>
       </c>
       <c r="C110" t="n">
-        <v>99.9192133649156</v>
+        <v>99.9193617545756</v>
       </c>
       <c r="D110" t="n">
-        <v>169.862662720356</v>
+        <v>169.862914982778</v>
       </c>
       <c r="E110" t="n">
-        <v>29.9757640094747</v>
+        <v>29.9758085263727</v>
       </c>
     </row>
     <row r="111">
@@ -6225,13 +6225,13 @@
         <v>7</v>
       </c>
       <c r="C111" t="n">
-        <v>117.813688635248</v>
+        <v>117.809803311193</v>
       </c>
       <c r="D111" t="n">
-        <v>200.283270679921</v>
+        <v>200.276665629028</v>
       </c>
       <c r="E111" t="n">
-        <v>35.3441065905743</v>
+        <v>35.3429409933579</v>
       </c>
     </row>
     <row r="112">
@@ -6242,13 +6242,13 @@
         <v>7</v>
       </c>
       <c r="C112" t="n">
-        <v>107.192670229424</v>
+        <v>107.191281813647</v>
       </c>
       <c r="D112" t="n">
-        <v>182.227539390022</v>
+        <v>182.225179083201</v>
       </c>
       <c r="E112" t="n">
-        <v>32.1578010688273</v>
+        <v>32.1573845440943</v>
       </c>
     </row>
     <row r="113">
@@ -6259,13 +6259,13 @@
         <v>7</v>
       </c>
       <c r="C113" t="n">
-        <v>101.664931760542</v>
+        <v>101.663360284488</v>
       </c>
       <c r="D113" t="n">
-        <v>172.830383992921</v>
+        <v>172.827712483629</v>
       </c>
       <c r="E113" t="n">
-        <v>30.4994795281626</v>
+        <v>30.4990080853463</v>
       </c>
     </row>
     <row r="114">
@@ -6276,13 +6276,13 @@
         <v>7</v>
       </c>
       <c r="C114" t="n">
-        <v>109.35313757888</v>
+        <v>109.352917090461</v>
       </c>
       <c r="D114" t="n">
-        <v>185.900333884096</v>
+        <v>185.899959053784</v>
       </c>
       <c r="E114" t="n">
-        <v>32.8059412736641</v>
+        <v>32.8058751271383</v>
       </c>
     </row>
     <row r="115">
@@ -6293,13 +6293,13 @@
         <v>7</v>
       </c>
       <c r="C115" t="n">
-        <v>112.871332985913</v>
+        <v>112.870174342498</v>
       </c>
       <c r="D115" t="n">
-        <v>191.881266076052</v>
+        <v>191.879296382247</v>
       </c>
       <c r="E115" t="n">
-        <v>33.8613998957738</v>
+        <v>33.8610523027495</v>
       </c>
     </row>
     <row r="116">
@@ -6310,13 +6310,13 @@
         <v>7</v>
       </c>
       <c r="C116" t="n">
-        <v>121.36732631953</v>
+        <v>121.366721048928</v>
       </c>
       <c r="D116" t="n">
-        <v>206.324454743201</v>
+        <v>206.323425783177</v>
       </c>
       <c r="E116" t="n">
-        <v>36.4101978958591</v>
+        <v>36.4100163146783</v>
       </c>
     </row>
     <row r="117">
@@ -6327,13 +6327,13 @@
         <v>7</v>
       </c>
       <c r="C117" t="n">
-        <v>125.491473736041</v>
+        <v>125.490779243435</v>
       </c>
       <c r="D117" t="n">
-        <v>213.335505351271</v>
+        <v>213.33432471384</v>
       </c>
       <c r="E117" t="n">
-        <v>37.6474421208125</v>
+        <v>37.6472337730306</v>
       </c>
     </row>
     <row r="118">
@@ -6344,13 +6344,13 @@
         <v>7</v>
       </c>
       <c r="C118" t="n">
-        <v>114.452022567524</v>
+        <v>114.45059377655</v>
       </c>
       <c r="D118" t="n">
-        <v>194.568438364791</v>
+        <v>194.566009420135</v>
       </c>
       <c r="E118" t="n">
-        <v>34.3356067702572</v>
+        <v>34.335178132965</v>
       </c>
     </row>
     <row r="119">
@@ -6361,13 +6361,13 @@
         <v>7</v>
       </c>
       <c r="C119" t="n">
-        <v>111.945954964576</v>
+        <v>111.944222117114</v>
       </c>
       <c r="D119" t="n">
-        <v>190.308123439779</v>
+        <v>190.305177599094</v>
       </c>
       <c r="E119" t="n">
-        <v>33.5837864893728</v>
+        <v>33.5832666351343</v>
       </c>
     </row>
     <row r="120">
@@ -6378,13 +6378,13 @@
         <v>7</v>
       </c>
       <c r="C120" t="n">
-        <v>114.28111005463</v>
+        <v>114.277967006682</v>
       </c>
       <c r="D120" t="n">
-        <v>194.277887092872</v>
+        <v>194.272543911359</v>
       </c>
       <c r="E120" t="n">
-        <v>34.2843330163891</v>
+        <v>34.2833901020046</v>
       </c>
     </row>
     <row r="121">
@@ -6395,13 +6395,13 @@
         <v>7</v>
       </c>
       <c r="C121" t="n">
-        <v>132.653123127173</v>
+        <v>132.649691667441</v>
       </c>
       <c r="D121" t="n">
-        <v>225.510309316194</v>
+        <v>225.504475834649</v>
       </c>
       <c r="E121" t="n">
-        <v>39.795936938152</v>
+        <v>39.7949075002323</v>
       </c>
     </row>
     <row r="122">
